--- a/보고서 양식/(보고서 양식)세아.xlsx
+++ b/보고서 양식/(보고서 양식)세아.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\보고서앱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\보고서 프로그램\보고서 양식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A32C805-9923-40AA-92B5-62696E0F8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6704BB-2712-4FD9-8A93-1094B5A4BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="7" activeTab="8" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
   </bookViews>
   <sheets>
     <sheet name="서비스 이용 인원" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
   <si>
     <t>심리상담</t>
   </si>
@@ -138,7 +138,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PAT</t>
+    <t>CES-D</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-ELS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICL</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +314,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +502,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -732,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +763,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1120,22 +1161,22 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1145,7 +1186,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -1157,7 +1198,7 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>34</v>
       </c>
     </row>
@@ -1167,7 +1208,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -1175,7 +1216,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -1183,7 +1224,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -1191,7 +1232,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
@@ -1199,7 +1240,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
@@ -1207,7 +1248,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
@@ -1215,48 +1256,51 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>33</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>33</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>33</v>
       </c>
     </row>
@@ -1270,23 +1314,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0155F563-CE0C-43DB-ADDA-B4E333301DB1}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1387,16 +1431,16 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>60</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>61</v>
       </c>
     </row>
@@ -1411,28 +1455,28 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1513,36 +1557,38 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
         <v>33</v>
       </c>
     </row>
@@ -1557,28 +1603,28 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1661,19 +1707,20 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>44</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
         <v>60</v>
       </c>
     </row>
@@ -1688,22 +1735,22 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1785,30 +1832,30 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>17</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>16</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>33</v>
       </c>
     </row>
@@ -1823,22 +1870,22 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1920,16 +1967,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>32</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>28</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>60</v>
       </c>
     </row>
@@ -1947,28 +1994,28 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2060,42 +2107,42 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>15</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>9</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>15</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>9</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>33</v>
       </c>
     </row>
@@ -2110,28 +2157,28 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" activeCellId="1" sqref="F14 H21"/>
+      <selection activeCell="A14" sqref="A14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2223,22 +2270,22 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>15</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>34</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>60</v>
       </c>
     </row>
@@ -2255,20 +2302,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8841A45-3C4D-4659-8202-CA899F72E992}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2354,15 +2407,15 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="2"/>
